--- a/latest_td.xlsx
+++ b/latest_td.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EddieKarlsson\Project\github\automation-boilerplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://martenssonconsultingse-my.sharepoint.com/personal/gustav_martenssonconsulting_se/Documents/10 Github Project/automation-boilerplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25C9723-2161-420A-98C5-EF94ACEE1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C25C9723-2161-420A-98C5-EF94ACEE1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5B36FD8-E56E-492A-AB8D-D796EBD54B3C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA7251AA-4BA0-402A-BD93-E22E271F770A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA7251AA-4BA0-402A-BD93-E22E271F770A}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="439">
   <si>
     <t>Sheet</t>
   </si>
@@ -387,61 +387,19 @@
     <t>PLC</t>
   </si>
   <si>
-    <t>TL0T01V10</t>
-  </si>
-  <si>
     <t>Tank CIP pressure</t>
-  </si>
-  <si>
-    <t>TL0T01V01</t>
   </si>
   <si>
     <t>Tank Bottom Valve</t>
   </si>
   <si>
-    <t>TL0T01V02</t>
-  </si>
-  <si>
     <t>Tank Drain Valve</t>
-  </si>
-  <si>
-    <t>TL0T02V10</t>
-  </si>
-  <si>
-    <t>TL0T02V01</t>
-  </si>
-  <si>
-    <t>TL0T02V02</t>
-  </si>
-  <si>
-    <t>TL0L01V01</t>
   </si>
   <si>
     <t>Line Transfer TL0T01</t>
   </si>
   <si>
-    <t>TL0L01V02</t>
-  </si>
-  <si>
     <t>Line Transfer TL0T02</t>
-  </si>
-  <si>
-    <t>A50T01V10</t>
-  </si>
-  <si>
-    <t>A50T01V01</t>
-  </si>
-  <si>
-    <t>A50T01V02</t>
-  </si>
-  <si>
-    <t>A50T02V10</t>
-  </si>
-  <si>
-    <t>A50T02V01</t>
-  </si>
-  <si>
-    <t>A50T02V02</t>
   </si>
   <si>
     <t>TL0T01M01</t>
@@ -601,27 +559,6 @@
   </si>
   <si>
     <t>PLC2</t>
-  </si>
-  <si>
-    <t>A50L01V03</t>
-  </si>
-  <si>
-    <t>A50L01V04</t>
-  </si>
-  <si>
-    <t>A30T01V10</t>
-  </si>
-  <si>
-    <t>A30T01V01</t>
-  </si>
-  <si>
-    <t>A30T01V02</t>
-  </si>
-  <si>
-    <t>TL0L02V01</t>
-  </si>
-  <si>
-    <t>TL0L02V02</t>
   </si>
   <si>
     <t>Line Transfer A50T01</t>
@@ -820,78 +757,6 @@
   </si>
   <si>
     <t>L1601_FT1104_Sum</t>
-  </si>
-  <si>
-    <t>T1600_V1000</t>
-  </si>
-  <si>
-    <t>T1600_V1001</t>
-  </si>
-  <si>
-    <t>T1600_V1005</t>
-  </si>
-  <si>
-    <t>T1601_V1000</t>
-  </si>
-  <si>
-    <t>T1601_V1001</t>
-  </si>
-  <si>
-    <t>T1601_V1003</t>
-  </si>
-  <si>
-    <t>T1601_V1004</t>
-  </si>
-  <si>
-    <t>T1602_V1000</t>
-  </si>
-  <si>
-    <t>T1602_V1001</t>
-  </si>
-  <si>
-    <t>T1602_V1003</t>
-  </si>
-  <si>
-    <t>T1602_V1005</t>
-  </si>
-  <si>
-    <t>T1602_V1006</t>
-  </si>
-  <si>
-    <t>T1602_V1007</t>
-  </si>
-  <si>
-    <t>T1603_V1000</t>
-  </si>
-  <si>
-    <t>T1603_V1001</t>
-  </si>
-  <si>
-    <t>T1603_V1003</t>
-  </si>
-  <si>
-    <t>T1603_V1005</t>
-  </si>
-  <si>
-    <t>T1603_V1006</t>
-  </si>
-  <si>
-    <t>T1603_V1007</t>
-  </si>
-  <si>
-    <t>L1601_V1100</t>
-  </si>
-  <si>
-    <t>L1601_V1101</t>
-  </si>
-  <si>
-    <t>L1601_V1102</t>
-  </si>
-  <si>
-    <t>L1601_V1103</t>
-  </si>
-  <si>
-    <t>L1601_V1104</t>
   </si>
   <si>
     <t>Drain</t>
@@ -1108,42 +973,6 @@
   </si>
   <si>
     <t>TL0P01P004</t>
-  </si>
-  <si>
-    <t>TL0P01V001</t>
-  </si>
-  <si>
-    <t>TL0P01V002</t>
-  </si>
-  <si>
-    <t>TL0P01V003</t>
-  </si>
-  <si>
-    <t>TL0P01V004</t>
-  </si>
-  <si>
-    <t>TL0P01V005</t>
-  </si>
-  <si>
-    <t>TL0P01V006</t>
-  </si>
-  <si>
-    <t>TL0P01V007</t>
-  </si>
-  <si>
-    <t>TL0P01V008</t>
-  </si>
-  <si>
-    <t>TL0P01V009</t>
-  </si>
-  <si>
-    <t>TL0P01V010</t>
-  </si>
-  <si>
-    <t>TL0P01V011</t>
-  </si>
-  <si>
-    <t>TL0P01V050</t>
   </si>
   <si>
     <t>Homogenisator Bypass</t>
@@ -1565,6 +1394,273 @@
   </si>
   <si>
     <t>• Add Line_Source and Line_Destination for Phases IT generation tags</t>
+  </si>
+  <si>
+    <t>AF1Y01</t>
+  </si>
+  <si>
+    <t>AF1YC02</t>
+  </si>
+  <si>
+    <t>AF1Y03</t>
+  </si>
+  <si>
+    <t>AF1Y04</t>
+  </si>
+  <si>
+    <t>AF1Y05</t>
+  </si>
+  <si>
+    <t>AF1Y06</t>
+  </si>
+  <si>
+    <t>AF1Y07</t>
+  </si>
+  <si>
+    <t>AF1Y08</t>
+  </si>
+  <si>
+    <t>AF1Y09</t>
+  </si>
+  <si>
+    <t>AF1Y10</t>
+  </si>
+  <si>
+    <t>AF1Y11</t>
+  </si>
+  <si>
+    <t>AF1Y12</t>
+  </si>
+  <si>
+    <t>AF1Y13</t>
+  </si>
+  <si>
+    <t>AF1Y14</t>
+  </si>
+  <si>
+    <t>AF2Y01</t>
+  </si>
+  <si>
+    <t>AF2YC02</t>
+  </si>
+  <si>
+    <t>AF2Y03</t>
+  </si>
+  <si>
+    <t>AF2Y04</t>
+  </si>
+  <si>
+    <t>AF2Y05</t>
+  </si>
+  <si>
+    <t>AF2Y06</t>
+  </si>
+  <si>
+    <t>AF2Y07</t>
+  </si>
+  <si>
+    <t>AF2Y08</t>
+  </si>
+  <si>
+    <t>AF2Y09</t>
+  </si>
+  <si>
+    <t>AF2Y10</t>
+  </si>
+  <si>
+    <t>AF2Y11</t>
+  </si>
+  <si>
+    <t>AF2Y12</t>
+  </si>
+  <si>
+    <t>AF2Y13</t>
+  </si>
+  <si>
+    <t>AF2Y14</t>
+  </si>
+  <si>
+    <t>BW1Y01</t>
+  </si>
+  <si>
+    <t>CIPY01</t>
+  </si>
+  <si>
+    <t>CIPY02</t>
+  </si>
+  <si>
+    <t>CIPY03</t>
+  </si>
+  <si>
+    <t>CIPY04</t>
+  </si>
+  <si>
+    <t>CIPY05</t>
+  </si>
+  <si>
+    <t>CIPY06</t>
+  </si>
+  <si>
+    <t>CTY01</t>
+  </si>
+  <si>
+    <t>CTY02</t>
+  </si>
+  <si>
+    <t>CTY03</t>
+  </si>
+  <si>
+    <t>CTY04</t>
+  </si>
+  <si>
+    <t>CTY05</t>
+  </si>
+  <si>
+    <t>DS2Y01</t>
+  </si>
+  <si>
+    <t>HWY01</t>
+  </si>
+  <si>
+    <t>HWY02</t>
+  </si>
+  <si>
+    <t>HWY03</t>
+  </si>
+  <si>
+    <t>HWY04</t>
+  </si>
+  <si>
+    <t>HWY05</t>
+  </si>
+  <si>
+    <t>HWYC01</t>
+  </si>
+  <si>
+    <t>PF1Y01</t>
+  </si>
+  <si>
+    <t>PF1Y02</t>
+  </si>
+  <si>
+    <t>PF1Y03</t>
+  </si>
+  <si>
+    <t>PF2Y01</t>
+  </si>
+  <si>
+    <t>PF2Y02</t>
+  </si>
+  <si>
+    <t>PF2Y03</t>
+  </si>
+  <si>
+    <t>PWY01</t>
+  </si>
+  <si>
+    <t>PWY02</t>
+  </si>
+  <si>
+    <t>PWY03</t>
+  </si>
+  <si>
+    <t>PWY04</t>
+  </si>
+  <si>
+    <t>PWY05</t>
+  </si>
+  <si>
+    <t>PWY06</t>
+  </si>
+  <si>
+    <t>RO1Y01</t>
+  </si>
+  <si>
+    <t>RO1YC01</t>
+  </si>
+  <si>
+    <t>RO1Y02</t>
+  </si>
+  <si>
+    <t>RO1YC02</t>
+  </si>
+  <si>
+    <t>RO1Y03</t>
+  </si>
+  <si>
+    <t>RO1YC03</t>
+  </si>
+  <si>
+    <t>RO1Y04</t>
+  </si>
+  <si>
+    <t>RO1Y06</t>
+  </si>
+  <si>
+    <t>RO1Y07</t>
+  </si>
+  <si>
+    <t>RO1Y08</t>
+  </si>
+  <si>
+    <t>RO1Y09</t>
+  </si>
+  <si>
+    <t>RO1Y10</t>
+  </si>
+  <si>
+    <t>RO1Y11</t>
+  </si>
+  <si>
+    <t>RO1Y12</t>
+  </si>
+  <si>
+    <t>RO1Y13</t>
+  </si>
+  <si>
+    <t>RO1Y14</t>
+  </si>
+  <si>
+    <t>RO1Y15</t>
+  </si>
+  <si>
+    <t>RO1Y16</t>
+  </si>
+  <si>
+    <t>RO1Y17</t>
+  </si>
+  <si>
+    <t>RO1Y18</t>
+  </si>
+  <si>
+    <t>RO1Y19</t>
+  </si>
+  <si>
+    <t>RO1Y20</t>
+  </si>
+  <si>
+    <t>RO1Y21</t>
+  </si>
+  <si>
+    <t>RO1Y22</t>
+  </si>
+  <si>
+    <t>RO1Y23</t>
+  </si>
+  <si>
+    <t>RO1Y25</t>
+  </si>
+  <si>
+    <t>RO1Y26</t>
+  </si>
+  <si>
+    <t>RWY01</t>
+  </si>
+  <si>
+    <t>RWY02</t>
+  </si>
+  <si>
+    <t>RWYC01</t>
   </si>
 </sst>
 </file>
@@ -2749,6 +2845,24 @@
     <xf numFmtId="0" fontId="37" fillId="7" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2770,16 +2884,16 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2787,24 +2901,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2826,7 +2922,17 @@
     <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent 2 2" xfId="9" xr:uid="{EF7A7829-79FD-4611-956F-3356E04BECF0}"/>
   </cellStyles>
-  <dxfs count="265">
+  <dxfs count="266">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6051,50 +6157,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}" name="valve_configs_table" displayName="valve_configs_table" ref="B3:C14" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}" name="valve_configs_table" displayName="valve_configs_table" ref="B3:C14" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" headerRowCellStyle="Normal 2">
   <autoFilter ref="B3:C14" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2B99697-6C22-4A65-9A1B-E36D1780E905}" name="Description" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{0C7255C4-22B6-457A-870A-411B65308579}" name="Value" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D2B99697-6C22-4A65-9A1B-E36D1780E905}" name="Description" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{0C7255C4-22B6-457A-870A-411B65308579}" name="Value" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}" name="motor_configs_table" displayName="motor_configs_table" ref="E3:F9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}" name="motor_configs_table" displayName="motor_configs_table" ref="E3:F9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" headerRowCellStyle="Normal 2">
   <autoFilter ref="E3:F9" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3566CC7F-11CE-4C21-9EB5-FA275F790C03}" name="Description" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7BD42503-42BD-4F3C-A5DC-32DAB0E6CD55}" name="Value" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{3566CC7F-11CE-4C21-9EB5-FA275F790C03}" name="Description" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7BD42503-42BD-4F3C-A5DC-32DAB0E6CD55}" name="Value" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}" name="alarm_configs_table" displayName="alarm_configs_table" ref="H3:I7" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}" name="alarm_configs_table" displayName="alarm_configs_table" ref="H3:I7" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="H3:I7" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{708D6350-80FE-46FF-B9B2-EC74246F1C57}" name="Description" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{94C6C4A0-B062-49D6-9CCC-0CD2BD3F95A4}" name="Value" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{708D6350-80FE-46FF-B9B2-EC74246F1C57}" name="Description" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{94C6C4A0-B062-49D6-9CCC-0CD2BD3F95A4}" name="Value" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87CC4E56-03D3-40F1-AEAA-382187738863}" name="types_unit_phase_table" displayName="types_unit_phase_table" ref="K3:K9" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87CC4E56-03D3-40F1-AEAA-382187738863}" name="types_unit_phase_table" displayName="types_unit_phase_table" ref="K3:K9" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="K3:K9" xr:uid="{87CC4E56-03D3-40F1-AEAA-382187738863}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F7F9DF1F-D2AD-4AD1-A84E-14353F41BEDC}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F7F9DF1F-D2AD-4AD1-A84E-14353F41BEDC}" name="Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6393,7 +6499,7 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:AMC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6411,10 +6517,10 @@
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="8" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
@@ -6423,10 +6529,10 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="14" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="16" customFormat="1" ht="33.6" customHeight="1" thickBot="1">
@@ -6443,7 +6549,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>5</v>
@@ -6451,7 +6557,7 @@
     </row>
     <row r="4" spans="1:6" s="16" customFormat="1" ht="25.35" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="B4" s="49">
         <f>valve_implc_plc_perc</f>
@@ -6476,7 +6582,7 @@
     </row>
     <row r="5" spans="1:6" s="16" customFormat="1" ht="25.35" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="B5" s="18">
         <f>motor_implc_plc_perc</f>
@@ -6614,7 +6720,7 @@
     </row>
     <row r="11" spans="1:6" s="16" customFormat="1" ht="25.35" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="B11" s="49">
         <f>sum_implc_plc_perc</f>
@@ -6655,7 +6761,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1">
       <c r="A31" s="104" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="105"/>
@@ -6665,51 +6771,51 @@
     </row>
     <row r="32" spans="1:6" ht="97.5" customHeight="1">
       <c r="A32" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="B32" s="120" t="s">
-        <v>356</v>
-      </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="122"/>
+        <v>267</v>
+      </c>
+      <c r="B32" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
     </row>
     <row r="33" spans="1:6" ht="32.25" customHeight="1">
       <c r="A33" s="69" t="s">
-        <v>372</v>
-      </c>
-      <c r="B33" s="123" t="s">
-        <v>373</v>
-      </c>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="125"/>
+        <v>315</v>
+      </c>
+      <c r="B33" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="112"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="B34" s="123" t="s">
-        <v>393</v>
-      </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="125"/>
+        <v>335</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="69" t="s">
-        <v>405</v>
-      </c>
-      <c r="B35" s="123" t="s">
-        <v>406</v>
-      </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="125"/>
+        <v>348</v>
+      </c>
+      <c r="B35" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="112"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:A12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -6721,52 +6827,52 @@
     <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="D6 D8:D9 F10 B4:F5 B11:F11 D12:F12">
-    <cfRule type="cellIs" dxfId="264" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="265" priority="8" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10 B12">
-    <cfRule type="cellIs" dxfId="263" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="14" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C10 C12">
-    <cfRule type="cellIs" dxfId="262" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="15" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="261" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="17" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="cellIs" dxfId="260" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="18" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="259" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="6" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="258" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="259" priority="4" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B35">
-    <cfRule type="cellIs" dxfId="257" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="256" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="2" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="255" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="1" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6819,14 +6925,14 @@
       <c r="P1" s="88"/>
       <c r="Q1" s="89"/>
       <c r="R1" s="95"/>
-      <c r="S1" s="110" t="s">
-        <v>310</v>
-      </c>
-      <c r="T1" s="110"/>
-      <c r="U1" s="108" t="s">
-        <v>311</v>
-      </c>
-      <c r="V1" s="109"/>
+      <c r="S1" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="T1" s="116"/>
+      <c r="U1" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="V1" s="115"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1">
       <c r="A2" s="95"/>
@@ -6847,61 +6953,61 @@
       <c r="P2" s="88"/>
       <c r="Q2" s="89"/>
       <c r="R2" s="95"/>
-      <c r="S2" s="110" t="s">
-        <v>309</v>
-      </c>
-      <c r="T2" s="110"/>
-      <c r="U2" s="108" t="s">
-        <v>312</v>
-      </c>
-      <c r="V2" s="109"/>
+      <c r="S2" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="T2" s="116"/>
+      <c r="U2" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="V2" s="115"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="112" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="118" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="87"/>
-      <c r="F3" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="117"/>
+      <c r="F3" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="121"/>
       <c r="K3" s="96"/>
-      <c r="L3" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="M3" s="113" t="s">
-        <v>197</v>
-      </c>
-      <c r="N3" s="113" t="s">
-        <v>197</v>
-      </c>
-      <c r="O3" s="113" t="s">
-        <v>197</v>
-      </c>
-      <c r="P3" s="117" t="s">
-        <v>197</v>
+      <c r="L3" s="118" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" s="121" t="s">
+        <v>152</v>
       </c>
       <c r="Q3" s="96"/>
-      <c r="R3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="S3" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="T3" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="U3" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="V3" s="114" t="s">
-        <v>82</v>
+      <c r="R3" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="122" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="41" customFormat="1" ht="11.25" customHeight="1">
@@ -6909,78 +7015,78 @@
         <v>12</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D4" s="97" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G4" s="98" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="I4" s="98" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="K4" s="99"/>
       <c r="L4" s="98" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="M4" s="98" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="N4" s="98" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="O4" s="98" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="P4" s="98" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="99"/>
       <c r="R4" s="98" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="S4" s="98" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="98" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="U4" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="V4" s="115"/>
+        <v>165</v>
+      </c>
+      <c r="V4" s="123"/>
     </row>
     <row r="5" spans="1:22" ht="15.75">
       <c r="A5" s="90" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B5" s="100" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D5" s="100" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="F5" s="91"/>
       <c r="G5" s="91"/>
@@ -7002,15 +7108,15 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="102" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C6" s="103"/>
       <c r="D6" s="103"/>
       <c r="E6" s="101" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7032,15 +7138,15 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="102" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B7" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C7" s="103"/>
       <c r="D7" s="103"/>
       <c r="E7" s="101" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="F7" s="94"/>
       <c r="G7" s="94"/>
@@ -7062,15 +7168,15 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="102" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="103"/>
       <c r="E8" s="101" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="F8" s="94"/>
       <c r="G8" s="94"/>
@@ -7092,15 +7198,15 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="102" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C9" s="103"/>
       <c r="D9" s="103"/>
       <c r="E9" s="101" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="F9" s="94"/>
       <c r="G9" s="94"/>
@@ -7122,19 +7228,19 @@
     </row>
     <row r="10" spans="1:22" ht="15.75">
       <c r="A10" s="90" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="F10" s="91"/>
       <c r="G10" s="91"/>
@@ -7156,15 +7262,15 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="102" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C11" s="103"/>
       <c r="D11" s="103"/>
       <c r="E11" s="101" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="F11" s="94"/>
       <c r="G11" s="94"/>
@@ -7186,15 +7292,15 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="102" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="103"/>
       <c r="E12" s="101" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="F12" s="94"/>
       <c r="G12" s="94"/>
@@ -7216,15 +7322,15 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="102" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C13" s="103"/>
       <c r="D13" s="103"/>
       <c r="E13" s="101" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
@@ -7246,15 +7352,15 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="102" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103"/>
       <c r="E14" s="101" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
@@ -7276,19 +7382,19 @@
     </row>
     <row r="15" spans="1:22" ht="15.75">
       <c r="A15" s="90" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D15" s="100" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="F15" s="91"/>
       <c r="G15" s="91"/>
@@ -7310,15 +7416,15 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="102" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C16" s="103"/>
       <c r="D16" s="103"/>
       <c r="E16" s="101" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="F16" s="94"/>
       <c r="G16" s="94"/>
@@ -7340,15 +7446,15 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="102" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C17" s="103"/>
       <c r="D17" s="103"/>
       <c r="E17" s="101" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="F17" s="94"/>
       <c r="G17" s="94"/>
@@ -7370,15 +7476,15 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="102" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="C18" s="103"/>
       <c r="D18" s="103"/>
       <c r="E18" s="101" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="F18" s="94"/>
       <c r="G18" s="94"/>
@@ -7400,15 +7506,15 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="102" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="C19" s="103"/>
       <c r="D19" s="103"/>
       <c r="E19" s="101" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="F19" s="94"/>
       <c r="G19" s="94"/>
@@ -7430,15 +7536,15 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="102" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="101" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="F20" s="94"/>
       <c r="G20" s="94"/>
@@ -7460,19 +7566,19 @@
     </row>
     <row r="21" spans="1:22" ht="15.75">
       <c r="A21" s="90" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="D21" s="100" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="E21" s="101" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="F21" s="91"/>
       <c r="G21" s="91"/>
@@ -7494,15 +7600,15 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="102" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C22" s="103"/>
       <c r="D22" s="103"/>
       <c r="E22" s="101" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="F22" s="94"/>
       <c r="G22" s="94"/>
@@ -7524,15 +7630,15 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="102" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C23" s="103"/>
       <c r="D23" s="103"/>
       <c r="E23" s="101" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="F23" s="94"/>
       <c r="G23" s="94"/>
@@ -7554,15 +7660,15 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="102" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C24" s="103"/>
       <c r="D24" s="103"/>
       <c r="E24" s="101" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="F24" s="94"/>
       <c r="G24" s="94"/>
@@ -7584,15 +7690,15 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="102" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C25" s="103"/>
       <c r="D25" s="103"/>
       <c r="E25" s="101" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="F25" s="94"/>
       <c r="G25" s="94"/>
@@ -7614,15 +7720,15 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="102" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C26" s="103"/>
       <c r="D26" s="103"/>
       <c r="E26" s="101" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="F26" s="94"/>
       <c r="G26" s="94"/>
@@ -7644,15 +7750,15 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="102" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B27" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C27" s="103"/>
       <c r="D27" s="103"/>
       <c r="E27" s="101" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="F27" s="94"/>
       <c r="G27" s="94"/>
@@ -7674,15 +7780,15 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="102" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="C28" s="103"/>
       <c r="D28" s="103"/>
       <c r="E28" s="101" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="F28" s="94"/>
       <c r="G28" s="94"/>
@@ -7704,15 +7810,15 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="102" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="C29" s="103"/>
       <c r="D29" s="103"/>
       <c r="E29" s="101" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="F29" s="94"/>
       <c r="G29" s="94"/>
@@ -7734,19 +7840,19 @@
     </row>
     <row r="30" spans="1:22" ht="15.75">
       <c r="A30" s="90" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E30" s="101" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="F30" s="91"/>
       <c r="G30" s="91"/>
@@ -7768,15 +7874,15 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="102" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C31" s="103"/>
       <c r="D31" s="103"/>
       <c r="E31" s="101" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="F31" s="94"/>
       <c r="G31" s="94"/>
@@ -7798,15 +7904,15 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="102" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C32" s="103"/>
       <c r="D32" s="103"/>
       <c r="E32" s="101" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="F32" s="94"/>
       <c r="G32" s="94"/>
@@ -7828,15 +7934,15 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="102" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C33" s="103"/>
       <c r="D33" s="103"/>
       <c r="E33" s="101" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="F33" s="94"/>
       <c r="G33" s="94"/>
@@ -7858,15 +7964,15 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="102" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C34" s="103"/>
       <c r="D34" s="103"/>
       <c r="E34" s="101" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="F34" s="94"/>
       <c r="G34" s="94"/>
@@ -7888,19 +7994,19 @@
     </row>
     <row r="35" spans="1:22" ht="15.75">
       <c r="A35" s="90" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E35" s="101" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="F35" s="91"/>
       <c r="G35" s="91"/>
@@ -7922,15 +8028,15 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="102" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C36" s="103"/>
       <c r="D36" s="103"/>
       <c r="E36" s="101" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="F36" s="94"/>
       <c r="G36" s="94"/>
@@ -7952,15 +8058,15 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="102" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
       <c r="E37" s="101" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="F37" s="94"/>
       <c r="G37" s="94"/>
@@ -7982,15 +8088,15 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="102" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C38" s="103"/>
       <c r="D38" s="103"/>
       <c r="E38" s="101" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="F38" s="94"/>
       <c r="G38" s="94"/>
@@ -8012,15 +8118,15 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="102" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C39" s="103"/>
       <c r="D39" s="103"/>
       <c r="E39" s="101" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="F39" s="94"/>
       <c r="G39" s="94"/>
@@ -8042,209 +8148,209 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:V9 F7:J9 L6:P9 R11:U12 L11:P12 F11:J12 B5:B19">
-    <cfRule type="cellIs" dxfId="83" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="345" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="346" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="347" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="348" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="79" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="353" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="354" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="355" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="356" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:J6">
-    <cfRule type="cellIs" dxfId="75" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="333" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="334" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="335" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="336" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16:V19">
-    <cfRule type="cellIs" dxfId="71" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="141" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="142" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="143" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="144" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="67" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="153" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="154" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="155" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="156" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:J14">
-    <cfRule type="cellIs" dxfId="63" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="149" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="150" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="151" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="152" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="59" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="145" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="146" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="147" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="148" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:J19">
-    <cfRule type="cellIs" dxfId="55" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="137" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="138" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="139" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="140" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:P19">
-    <cfRule type="cellIs" dxfId="51" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="133" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="134" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="135" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="136" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:U19">
-    <cfRule type="cellIs" dxfId="47" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="129" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="130" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="131" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="132" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V12">
-    <cfRule type="cellIs" dxfId="43" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="113" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="114" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="115" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="116" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="39" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="53" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="54" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="55" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="56" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8323,16 +8429,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>1</v>
@@ -8341,14 +8447,14 @@
         <v>2</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="107">
+      <c r="A4" s="113">
         <f>COUNTA(A6:A296)</f>
         <v>10</v>
       </c>
@@ -8370,11 +8476,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="107"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="75"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -8396,20 +8502,20 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="32" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -8421,17 +8527,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="32" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>4</v>
@@ -8446,17 +8552,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="32" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="34" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>4</v>
@@ -8471,17 +8577,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="32" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="34" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>4</v>
@@ -8496,17 +8602,17 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="32" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="34" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>4</v>
@@ -8521,17 +8627,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="32" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="34" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>4</v>
@@ -8546,17 +8652,17 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="32" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>4</v>
@@ -8571,17 +8677,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="32" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="34" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>4</v>
@@ -8596,20 +8702,20 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="32" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -8621,20 +8727,20 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="32" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
@@ -12865,44 +12971,44 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:I296">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J296">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="between">
       <formula>750</formula>
       <formula>999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="between">
       <formula>500</formula>
       <formula>749</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="between">
       <formula>250</formula>
       <formula>499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A296">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>NOT(ISERROR(SEARCH(" ",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B296">
-    <cfRule type="duplicateValues" dxfId="18" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="278"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F296" xr:uid="{7E766BAA-3222-4A1B-96F6-6DD936D34E56}">
@@ -12945,20 +13051,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="118" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="E2" s="118" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="119"/>
-      <c r="H2" s="118" t="s">
-        <v>334</v>
-      </c>
-      <c r="I2" s="119"/>
+      <c r="B2" s="124" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="E2" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="H2" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="125"/>
       <c r="K2" s="83" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -12966,19 +13072,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="E3" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="H3" s="76" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="77" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="K3" s="84" t="s">
         <v>13</v>
@@ -12986,36 +13092,36 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="55" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="C4" s="56">
         <v>0</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="F4" s="62">
         <v>0</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="I4" s="78">
         <v>1</v>
       </c>
       <c r="K4" s="85" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="53" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C5" s="54">
         <v>33</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="F5" s="64">
         <v>17</v>
@@ -13027,92 +13133,92 @@
         <v>250</v>
       </c>
       <c r="K5" s="85" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="53" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C6" s="54">
         <v>37</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="F6" s="64">
         <v>21</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="I6" s="79">
         <v>500</v>
       </c>
       <c r="K6" s="86" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="53" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C7" s="54">
         <v>47</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="F7" s="64">
         <v>53</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="I7" s="81">
         <v>750</v>
       </c>
       <c r="K7" s="85" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="53" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="C8" s="54">
         <v>57</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="F8" s="64">
         <v>86</v>
       </c>
       <c r="K8" s="85" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="53" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C9" s="54">
         <v>63</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="F9" s="64">
         <v>117</v>
       </c>
       <c r="K9" s="85" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="53" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="C10" s="54">
         <v>97</v>
@@ -13120,7 +13226,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="53" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C11" s="54">
         <v>101</v>
@@ -13128,7 +13234,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="53" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="C12" s="54">
         <v>111</v>
@@ -13136,7 +13242,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="53" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C13" s="54">
         <v>121</v>
@@ -13144,7 +13250,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="53" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="C14" s="54">
         <v>127</v>
@@ -13172,8 +13278,8 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:ALK293"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13205,11 +13311,11 @@
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="M1" s="108" t="str">
+      <c r="M1" s="114" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="N1" s="109"/>
+      <c r="N1" s="115"/>
     </row>
     <row r="2" spans="1:999" ht="18" customHeight="1">
       <c r="A2" s="38"/>
@@ -13227,11 +13333,11 @@
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="M2" s="108" t="str">
+      <c r="M2" s="114" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="N2" s="109"/>
+      <c r="N2" s="115"/>
     </row>
     <row r="3" spans="1:999" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -13244,13 +13350,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>1</v>
@@ -13262,19 +13368,19 @@
         <v>3</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="ALI3"/>
       <c r="ALJ3"/>
@@ -13282,9 +13388,9 @@
     </row>
     <row r="4" spans="1:999" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="107">
+      <c r="B4" s="113">
         <f>COUNTA(B6:B293)</f>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="37"/>
@@ -13325,7 +13431,7 @@
     </row>
     <row r="5" spans="1:999" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -13362,20 +13468,20 @@
     </row>
     <row r="6" spans="1:999">
       <c r="A6" s="32"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -13387,28 +13493,28 @@
         <v>57</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:999">
       <c r="A7" s="34"/>
-      <c r="B7" s="32" t="s">
-        <v>17</v>
+      <c r="B7" s="34" t="s">
+        <v>351</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -13420,28 +13526,28 @@
         <v>57</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:999">
       <c r="A8" s="34"/>
-      <c r="B8" s="32" t="s">
-        <v>19</v>
+      <c r="B8" s="34" t="s">
+        <v>352</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -13453,28 +13559,28 @@
         <v>57</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:999">
       <c r="A9" s="34"/>
-      <c r="B9" s="32" t="s">
-        <v>21</v>
+      <c r="B9" s="34" t="s">
+        <v>353</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -13486,28 +13592,28 @@
         <v>57</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:999">
       <c r="A10" s="34"/>
-      <c r="B10" s="32" t="s">
-        <v>22</v>
+      <c r="B10" s="34" t="s">
+        <v>354</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -13519,28 +13625,28 @@
         <v>57</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:999">
       <c r="A11" s="34"/>
-      <c r="B11" s="32" t="s">
-        <v>23</v>
+      <c r="B11" s="34" t="s">
+        <v>355</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
@@ -13556,20 +13662,20 @@
     </row>
     <row r="12" spans="1:999">
       <c r="A12" s="34"/>
-      <c r="B12" s="32" t="s">
-        <v>24</v>
+      <c r="B12" s="34" t="s">
+        <v>356</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -13585,20 +13691,20 @@
     </row>
     <row r="13" spans="1:999">
       <c r="A13" s="34"/>
-      <c r="B13" s="32" t="s">
-        <v>26</v>
+      <c r="B13" s="34" t="s">
+        <v>357</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -13614,20 +13720,20 @@
     </row>
     <row r="14" spans="1:999">
       <c r="A14" s="34"/>
-      <c r="B14" s="32" t="s">
-        <v>28</v>
+      <c r="B14" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -13643,20 +13749,20 @@
     </row>
     <row r="15" spans="1:999">
       <c r="A15" s="34"/>
-      <c r="B15" s="32" t="s">
-        <v>29</v>
+      <c r="B15" s="34" t="s">
+        <v>359</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
@@ -13672,20 +13778,20 @@
     </row>
     <row r="16" spans="1:999">
       <c r="A16" s="34"/>
-      <c r="B16" s="32" t="s">
-        <v>30</v>
+      <c r="B16" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
@@ -13702,19 +13808,19 @@
     <row r="17" spans="1:14">
       <c r="A17" s="34"/>
       <c r="B17" s="34" t="s">
-        <v>31</v>
+        <v>361</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
@@ -13731,19 +13837,19 @@
     <row r="18" spans="1:14">
       <c r="A18" s="34"/>
       <c r="B18" s="34" t="s">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
@@ -13760,19 +13866,19 @@
     <row r="19" spans="1:14">
       <c r="A19" s="34"/>
       <c r="B19" s="34" t="s">
-        <v>33</v>
+        <v>363</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -13789,19 +13895,19 @@
     <row r="20" spans="1:14">
       <c r="A20" s="34"/>
       <c r="B20" s="34" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
@@ -13818,19 +13924,19 @@
     <row r="21" spans="1:14">
       <c r="A21" s="34"/>
       <c r="B21" s="34" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
@@ -13847,19 +13953,19 @@
     <row r="22" spans="1:14">
       <c r="A22" s="34"/>
       <c r="B22" s="34" t="s">
-        <v>89</v>
+        <v>366</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
@@ -13876,19 +13982,19 @@
     <row r="23" spans="1:14">
       <c r="A23" s="34"/>
       <c r="B23" s="34" t="s">
-        <v>90</v>
+        <v>367</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -13905,19 +14011,19 @@
     <row r="24" spans="1:14">
       <c r="A24" s="34"/>
       <c r="B24" s="34" t="s">
-        <v>91</v>
+        <v>368</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
@@ -13934,19 +14040,19 @@
     <row r="25" spans="1:14">
       <c r="A25" s="34"/>
       <c r="B25" s="34" t="s">
-        <v>92</v>
+        <v>369</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
@@ -13963,19 +14069,19 @@
     <row r="26" spans="1:14">
       <c r="A26" s="34"/>
       <c r="B26" s="34" t="s">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
@@ -13992,19 +14098,19 @@
     <row r="27" spans="1:14">
       <c r="A27" s="34"/>
       <c r="B27" s="34" t="s">
-        <v>160</v>
+        <v>371</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
@@ -14021,19 +14127,19 @@
     <row r="28" spans="1:14">
       <c r="A28" s="34"/>
       <c r="B28" s="34" t="s">
-        <v>161</v>
+        <v>372</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
@@ -14050,19 +14156,19 @@
     <row r="29" spans="1:14">
       <c r="A29" s="34"/>
       <c r="B29" s="34" t="s">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
@@ -14079,19 +14185,19 @@
     <row r="30" spans="1:14">
       <c r="A30" s="34"/>
       <c r="B30" s="34" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
@@ -14108,19 +14214,19 @@
     <row r="31" spans="1:14">
       <c r="A31" s="34"/>
       <c r="B31" s="34" t="s">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
@@ -14137,19 +14243,19 @@
     <row r="32" spans="1:14">
       <c r="A32" s="34"/>
       <c r="B32" s="34" t="s">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
@@ -14166,19 +14272,19 @@
     <row r="33" spans="1:14">
       <c r="A33" s="34"/>
       <c r="B33" s="34" t="s">
-        <v>166</v>
+        <v>377</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
@@ -14195,19 +14301,19 @@
     <row r="34" spans="1:14">
       <c r="A34" s="34"/>
       <c r="B34" s="34" t="s">
-        <v>167</v>
+        <v>378</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
@@ -14224,19 +14330,19 @@
     <row r="35" spans="1:14">
       <c r="A35" s="34"/>
       <c r="B35" s="34" t="s">
-        <v>168</v>
+        <v>379</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
@@ -14253,19 +14359,19 @@
     <row r="36" spans="1:14">
       <c r="A36" s="34"/>
       <c r="B36" s="34" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
@@ -14282,19 +14388,19 @@
     <row r="37" spans="1:14">
       <c r="A37" s="34"/>
       <c r="B37" s="34" t="s">
-        <v>170</v>
+        <v>381</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
@@ -14311,19 +14417,19 @@
     <row r="38" spans="1:14">
       <c r="A38" s="34"/>
       <c r="B38" s="34" t="s">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
@@ -14340,19 +14446,19 @@
     <row r="39" spans="1:14">
       <c r="A39" s="34"/>
       <c r="B39" s="34" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -14369,19 +14475,19 @@
     <row r="40" spans="1:14">
       <c r="A40" s="34"/>
       <c r="B40" s="34" t="s">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
@@ -14398,19 +14504,19 @@
     <row r="41" spans="1:14">
       <c r="A41" s="34"/>
       <c r="B41" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
@@ -14427,19 +14533,19 @@
     <row r="42" spans="1:14">
       <c r="A42" s="34"/>
       <c r="B42" s="34" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
@@ -14456,19 +14562,19 @@
     <row r="43" spans="1:14">
       <c r="A43" s="34"/>
       <c r="B43" s="34" t="s">
-        <v>176</v>
+        <v>387</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
@@ -14485,19 +14591,19 @@
     <row r="44" spans="1:14">
       <c r="A44" s="34"/>
       <c r="B44" s="34" t="s">
-        <v>177</v>
+        <v>388</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
@@ -14514,19 +14620,19 @@
     <row r="45" spans="1:14">
       <c r="A45" s="34"/>
       <c r="B45" s="34" t="s">
-        <v>178</v>
+        <v>389</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
@@ -14543,19 +14649,19 @@
     <row r="46" spans="1:14">
       <c r="A46" s="34"/>
       <c r="B46" s="34" t="s">
-        <v>179</v>
+        <v>390</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
@@ -14572,19 +14678,19 @@
     <row r="47" spans="1:14">
       <c r="A47" s="34"/>
       <c r="B47" s="34" t="s">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
@@ -14601,19 +14707,19 @@
     <row r="48" spans="1:14">
       <c r="A48" s="34"/>
       <c r="B48" s="34" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
@@ -14630,19 +14736,19 @@
     <row r="49" spans="1:14">
       <c r="A49" s="34"/>
       <c r="B49" s="34" t="s">
-        <v>182</v>
+        <v>393</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
@@ -14659,19 +14765,19 @@
     <row r="50" spans="1:14">
       <c r="A50" s="34"/>
       <c r="B50" s="34" t="s">
-        <v>183</v>
+        <v>394</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
@@ -14687,20 +14793,20 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="34"/>
-      <c r="B51" s="42" t="s">
-        <v>256</v>
+      <c r="B51" s="34" t="s">
+        <v>395</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -14716,20 +14822,20 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="34"/>
-      <c r="B52" s="42" t="s">
-        <v>257</v>
+      <c r="B52" s="34" t="s">
+        <v>396</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
@@ -14745,20 +14851,20 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="34"/>
-      <c r="B53" s="42" t="s">
-        <v>258</v>
+      <c r="B53" s="34" t="s">
+        <v>397</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
@@ -14774,20 +14880,20 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="34"/>
-      <c r="B54" s="42" t="s">
-        <v>259</v>
+      <c r="B54" s="34" t="s">
+        <v>398</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
@@ -14803,20 +14909,20 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="34"/>
-      <c r="B55" s="42" t="s">
-        <v>260</v>
+      <c r="B55" s="34" t="s">
+        <v>399</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
@@ -14832,20 +14938,20 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="34"/>
-      <c r="B56" s="42" t="s">
-        <v>261</v>
+      <c r="B56" s="34" t="s">
+        <v>400</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
@@ -14861,20 +14967,20 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="34"/>
-      <c r="B57" s="42" t="s">
-        <v>262</v>
+      <c r="B57" s="34" t="s">
+        <v>401</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
@@ -14890,20 +14996,20 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="34"/>
-      <c r="B58" s="42" t="s">
-        <v>263</v>
+      <c r="B58" s="34" t="s">
+        <v>402</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
@@ -14919,20 +15025,20 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="34"/>
-      <c r="B59" s="42" t="s">
-        <v>264</v>
+      <c r="B59" s="34" t="s">
+        <v>403</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
@@ -14948,20 +15054,20 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="34"/>
-      <c r="B60" s="42" t="s">
-        <v>265</v>
+      <c r="B60" s="34" t="s">
+        <v>404</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
@@ -14977,20 +15083,20 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="34"/>
-      <c r="B61" s="42" t="s">
-        <v>266</v>
+      <c r="B61" s="34" t="s">
+        <v>405</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
@@ -15006,20 +15112,20 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="34"/>
-      <c r="B62" s="42" t="s">
-        <v>267</v>
+      <c r="B62" s="34" t="s">
+        <v>406</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
@@ -15035,7 +15141,9 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="B63" s="34" t="s">
+        <v>407</v>
+      </c>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
@@ -15054,7 +15162,9 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
+      <c r="B64" s="34" t="s">
+        <v>408</v>
+      </c>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
@@ -15073,7 +15183,9 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
+      <c r="B65" s="34" t="s">
+        <v>409</v>
+      </c>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
@@ -15092,7 +15204,9 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
+      <c r="B66" s="34" t="s">
+        <v>410</v>
+      </c>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
@@ -15111,7 +15225,9 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
+      <c r="B67" s="34" t="s">
+        <v>411</v>
+      </c>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
@@ -15130,7 +15246,9 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
+      <c r="B68" s="34" t="s">
+        <v>412</v>
+      </c>
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
@@ -15149,7 +15267,9 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
+      <c r="B69" s="34" t="s">
+        <v>413</v>
+      </c>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34"/>
@@ -15168,7 +15288,9 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
+      <c r="B70" s="34" t="s">
+        <v>414</v>
+      </c>
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
       <c r="E70" s="34"/>
@@ -15187,7 +15309,9 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
+      <c r="B71" s="34" t="s">
+        <v>415</v>
+      </c>
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
@@ -15206,7 +15330,9 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
+      <c r="B72" s="34" t="s">
+        <v>416</v>
+      </c>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
@@ -15225,7 +15351,9 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
+      <c r="B73" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
@@ -15244,7 +15372,9 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
+      <c r="B74" s="34" t="s">
+        <v>418</v>
+      </c>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
@@ -15263,7 +15393,9 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
+      <c r="B75" s="34" t="s">
+        <v>419</v>
+      </c>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
@@ -15282,7 +15414,9 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
+      <c r="B76" s="34" t="s">
+        <v>420</v>
+      </c>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
@@ -15301,7 +15435,9 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
+      <c r="B77" s="34" t="s">
+        <v>421</v>
+      </c>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
@@ -15320,7 +15456,9 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
+      <c r="B78" s="34" t="s">
+        <v>422</v>
+      </c>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
@@ -15339,7 +15477,9 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
+      <c r="B79" s="34" t="s">
+        <v>423</v>
+      </c>
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
@@ -15358,7 +15498,9 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
+      <c r="B80" s="34" t="s">
+        <v>424</v>
+      </c>
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34"/>
@@ -15377,7 +15519,9 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
+      <c r="B81" s="34" t="s">
+        <v>425</v>
+      </c>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
@@ -15396,7 +15540,9 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
+      <c r="B82" s="34" t="s">
+        <v>426</v>
+      </c>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34"/>
@@ -15415,7 +15561,9 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
+      <c r="B83" s="34" t="s">
+        <v>427</v>
+      </c>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34"/>
@@ -15434,7 +15582,9 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
+      <c r="B84" s="34" t="s">
+        <v>428</v>
+      </c>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
@@ -15453,7 +15603,9 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
+      <c r="B85" s="34" t="s">
+        <v>429</v>
+      </c>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34"/>
@@ -15472,7 +15624,9 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
+      <c r="B86" s="34" t="s">
+        <v>430</v>
+      </c>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34"/>
@@ -15491,7 +15645,9 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
+      <c r="B87" s="34" t="s">
+        <v>431</v>
+      </c>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
       <c r="E87" s="34"/>
@@ -15510,7 +15666,9 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
+      <c r="B88" s="34" t="s">
+        <v>432</v>
+      </c>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="34"/>
@@ -15529,7 +15687,9 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
+      <c r="B89" s="34" t="s">
+        <v>433</v>
+      </c>
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34"/>
@@ -15548,7 +15708,9 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
+      <c r="B90" s="34" t="s">
+        <v>434</v>
+      </c>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
@@ -15567,7 +15729,9 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
+      <c r="B91" s="34" t="s">
+        <v>435</v>
+      </c>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34"/>
@@ -15586,7 +15750,9 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
+      <c r="B92" s="34" t="s">
+        <v>436</v>
+      </c>
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="34"/>
@@ -15605,7 +15771,9 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="B93" s="34" t="s">
+        <v>437</v>
+      </c>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="34"/>
@@ -15624,7 +15792,9 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
+      <c r="B94" s="34" t="s">
+        <v>438</v>
+      </c>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="34"/>
@@ -19427,44 +19597,38 @@
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K293">
-    <cfRule type="cellIs" dxfId="254" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="7" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="8" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="9" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="10" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="250" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B13">
-    <cfRule type="duplicateValues" dxfId="249" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="248" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B293 B7:B8 B14:B50">
-    <cfRule type="duplicateValues" dxfId="247" priority="13"/>
+  <conditionalFormatting sqref="B95:B293">
+    <cfRule type="duplicateValues" dxfId="248" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:N293">
-    <cfRule type="cellIs" dxfId="246" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B94">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F62 F293" xr:uid="{CD348D37-DD25-4857-B38F-E4611E7771B6}">
@@ -19554,13 +19718,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>1</v>
@@ -19572,19 +19736,19 @@
         <v>3</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="ALU3"/>
     </row>
     <row r="4" spans="1:1009" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="107">
+      <c r="B4" s="113">
         <f>COUNTA(B6:B300)</f>
         <v>14</v>
       </c>
@@ -19617,7 +19781,7 @@
     </row>
     <row r="5" spans="1:1009" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -19647,19 +19811,19 @@
     <row r="6" spans="1:1009">
       <c r="A6" s="32"/>
       <c r="B6" s="32" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -19674,19 +19838,19 @@
     <row r="7" spans="1:1009">
       <c r="A7" s="34"/>
       <c r="B7" s="32" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -19701,19 +19865,19 @@
     <row r="8" spans="1:1009">
       <c r="A8" s="34"/>
       <c r="B8" s="32" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -19728,19 +19892,19 @@
     <row r="9" spans="1:1009">
       <c r="A9" s="34"/>
       <c r="B9" s="32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -19755,19 +19919,19 @@
     <row r="10" spans="1:1009">
       <c r="A10" s="34"/>
       <c r="B10" s="32" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -19782,19 +19946,19 @@
     <row r="11" spans="1:1009">
       <c r="A11" s="34"/>
       <c r="B11" s="32" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
@@ -19809,19 +19973,19 @@
     <row r="12" spans="1:1009">
       <c r="A12" s="34"/>
       <c r="B12" s="32" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -19836,19 +20000,19 @@
     <row r="13" spans="1:1009">
       <c r="A13" s="34"/>
       <c r="B13" s="32" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -19863,19 +20027,19 @@
     <row r="14" spans="1:1009">
       <c r="A14" s="34"/>
       <c r="B14" s="32" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -19890,19 +20054,19 @@
     <row r="15" spans="1:1009">
       <c r="A15" s="34"/>
       <c r="B15" s="42" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
@@ -19917,19 +20081,19 @@
     <row r="16" spans="1:1009">
       <c r="A16" s="34"/>
       <c r="B16" s="42" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
@@ -19944,19 +20108,19 @@
     <row r="17" spans="1:12">
       <c r="A17" s="34"/>
       <c r="B17" s="42" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
@@ -19971,19 +20135,19 @@
     <row r="18" spans="1:12">
       <c r="A18" s="34"/>
       <c r="B18" s="42" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
@@ -19998,19 +20162,19 @@
     <row r="19" spans="1:12">
       <c r="A19" s="34"/>
       <c r="B19" s="42" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -24804,86 +24968,86 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="242" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="238" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="234" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J300">
-    <cfRule type="cellIs" dxfId="230" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="19" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K300">
-    <cfRule type="cellIs" dxfId="226" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8 B11:B14 B20:B300">
-    <cfRule type="duplicateValues" dxfId="222" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="221" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="220" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="219" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="33"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F19" xr:uid="{858AD274-EE67-43BB-A3F1-3780D7923764}">
@@ -24970,7 +25134,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
@@ -24982,7 +25146,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>5</v>
@@ -24990,7 +25154,7 @@
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="107">
+      <c r="B4" s="113">
         <f>COUNTA(B6:B303)</f>
         <v>17</v>
       </c>
@@ -25016,7 +25180,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -25040,16 +25204,16 @@
     <row r="6" spans="1:9">
       <c r="A6" s="32"/>
       <c r="B6" s="32" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -25059,16 +25223,16 @@
     <row r="7" spans="1:9">
       <c r="A7" s="34"/>
       <c r="B7" s="32" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
@@ -25078,16 +25242,16 @@
     <row r="8" spans="1:9">
       <c r="A8" s="34"/>
       <c r="B8" s="32" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -25097,16 +25261,16 @@
     <row r="9" spans="1:9">
       <c r="A9" s="34"/>
       <c r="B9" s="32" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -25116,16 +25280,16 @@
     <row r="10" spans="1:9">
       <c r="A10" s="34"/>
       <c r="B10" s="32" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -25135,16 +25299,16 @@
     <row r="11" spans="1:9">
       <c r="A11" s="34"/>
       <c r="B11" s="32" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -25154,16 +25318,16 @@
     <row r="12" spans="1:9">
       <c r="A12" s="34"/>
       <c r="B12" s="32" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -25173,16 +25337,16 @@
     <row r="13" spans="1:9">
       <c r="A13" s="34"/>
       <c r="B13" s="32" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -25192,16 +25356,16 @@
     <row r="14" spans="1:9">
       <c r="A14" s="34"/>
       <c r="B14" s="32" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -25211,16 +25375,16 @@
     <row r="15" spans="1:9">
       <c r="A15" s="34"/>
       <c r="B15" s="32" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -25230,16 +25394,16 @@
     <row r="16" spans="1:9">
       <c r="A16" s="34"/>
       <c r="B16" s="32" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -25249,16 +25413,16 @@
     <row r="17" spans="1:9">
       <c r="A17" s="34"/>
       <c r="B17" s="32" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -25268,16 +25432,16 @@
     <row r="18" spans="1:9">
       <c r="A18" s="34"/>
       <c r="B18" s="32" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -25287,16 +25451,16 @@
     <row r="19" spans="1:9">
       <c r="A19" s="34"/>
       <c r="B19" s="34" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -25306,16 +25470,16 @@
     <row r="20" spans="1:9">
       <c r="A20" s="34"/>
       <c r="B20" s="34" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -25325,16 +25489,16 @@
     <row r="21" spans="1:9">
       <c r="A21" s="34"/>
       <c r="B21" s="43" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -25344,16 +25508,16 @@
     <row r="22" spans="1:9">
       <c r="A22" s="34"/>
       <c r="B22" s="43" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -28457,75 +28621,75 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F303">
-    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G303">
-    <cfRule type="cellIs" dxfId="214" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H303">
-    <cfRule type="cellIs" dxfId="210" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I303">
-    <cfRule type="cellIs" dxfId="206" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7 B9:B10 B12:B13 B15:B16 B18:B303">
-    <cfRule type="duplicateValues" dxfId="202" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="201" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="200" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="199" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="198" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="34"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -28597,7 +28761,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
@@ -28612,7 +28776,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>5</v>
@@ -28620,7 +28784,7 @@
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="107">
+      <c r="B4" s="113">
         <f>COUNTA(B6:B300)</f>
         <v>1</v>
       </c>
@@ -28650,7 +28814,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -28678,16 +28842,16 @@
     <row r="6" spans="1:10">
       <c r="A6" s="32"/>
       <c r="B6" s="32" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -32228,77 +32392,77 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="193" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I300">
-    <cfRule type="cellIs" dxfId="185" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J300">
-    <cfRule type="cellIs" dxfId="181" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B300">
-    <cfRule type="duplicateValues" dxfId="177" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32336,16 +32500,16 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
-      <c r="J1" s="110" t="str">
+      <c r="J1" s="116" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="108" t="str">
+      <c r="K1" s="116"/>
+      <c r="L1" s="114" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="M1" s="109"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="39"/>
@@ -32357,16 +32521,16 @@
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
-      <c r="J2" s="110" t="str">
+      <c r="J2" s="116" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="108" t="str">
+      <c r="K2" s="116"/>
+      <c r="L2" s="114" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="M2" s="109"/>
+      <c r="M2" s="115"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -32379,7 +32543,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
@@ -32394,24 +32558,24 @@
         <v>3</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="107">
+      <c r="B4" s="113">
         <f>COUNTA(B6:B300)</f>
         <v>18</v>
       </c>
@@ -32444,7 +32608,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -32470,25 +32634,25 @@
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="32"/>
       <c r="B6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -32496,7 +32660,7 @@
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L6" s="28">
         <v>0</v>
@@ -32508,16 +32672,16 @@
     <row r="7" spans="1:13">
       <c r="A7" s="34"/>
       <c r="B7" s="32" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
@@ -32525,7 +32689,7 @@
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L7" s="28">
         <v>0</v>
@@ -32537,16 +32701,16 @@
     <row r="8" spans="1:13">
       <c r="A8" s="34"/>
       <c r="B8" s="32" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -32554,7 +32718,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L8" s="28">
         <v>0</v>
@@ -32566,16 +32730,16 @@
     <row r="9" spans="1:13">
       <c r="A9" s="34"/>
       <c r="B9" s="32" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -32583,7 +32747,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L9" s="28">
         <v>0</v>
@@ -32595,16 +32759,16 @@
     <row r="10" spans="1:13">
       <c r="A10" s="34"/>
       <c r="B10" s="32" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -32612,7 +32776,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L10" s="28">
         <v>0</v>
@@ -32624,14 +32788,14 @@
     <row r="11" spans="1:13">
       <c r="A11" s="34"/>
       <c r="B11" s="32" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -32639,7 +32803,7 @@
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
       <c r="K11" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L11" s="28">
         <v>0</v>
@@ -32651,14 +32815,14 @@
     <row r="12" spans="1:13">
       <c r="A12" s="34"/>
       <c r="B12" s="32" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -32666,7 +32830,7 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L12" s="28">
         <v>0</v>
@@ -32678,14 +32842,14 @@
     <row r="13" spans="1:13">
       <c r="A13" s="34"/>
       <c r="B13" s="32" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -32693,7 +32857,7 @@
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L13" s="28">
         <v>0</v>
@@ -32705,14 +32869,14 @@
     <row r="14" spans="1:13">
       <c r="A14" s="34"/>
       <c r="B14" s="32" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -32720,7 +32884,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L14" s="28">
         <v>0</v>
@@ -32732,16 +32896,16 @@
     <row r="15" spans="1:13">
       <c r="A15" s="34"/>
       <c r="B15" s="43" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -32749,7 +32913,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
       <c r="K15" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L15" s="28">
         <v>0</v>
@@ -32761,16 +32925,16 @@
     <row r="16" spans="1:13">
       <c r="A16" s="34"/>
       <c r="B16" s="43" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -32778,7 +32942,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L16" s="28">
         <v>0</v>
@@ -32790,16 +32954,16 @@
     <row r="17" spans="1:13">
       <c r="A17" s="34"/>
       <c r="B17" s="43" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -32807,7 +32971,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L17" s="28">
         <v>0</v>
@@ -32819,16 +32983,16 @@
     <row r="18" spans="1:13">
       <c r="A18" s="34"/>
       <c r="B18" s="43" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -32836,7 +33000,7 @@
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L18" s="28">
         <v>0</v>
@@ -32848,16 +33012,16 @@
     <row r="19" spans="1:13">
       <c r="A19" s="34"/>
       <c r="B19" s="43" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -32865,7 +33029,7 @@
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L19" s="28">
         <v>0</v>
@@ -32877,16 +33041,16 @@
     <row r="20" spans="1:13">
       <c r="A20" s="34"/>
       <c r="B20" s="43" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -32894,7 +33058,7 @@
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
       <c r="K20" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L20" s="28">
         <v>0</v>
@@ -32906,16 +33070,16 @@
     <row r="21" spans="1:13">
       <c r="A21" s="34"/>
       <c r="B21" s="43" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -32923,7 +33087,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
       <c r="K21" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L21" s="28">
         <v>0</v>
@@ -32935,16 +33099,16 @@
     <row r="22" spans="1:13">
       <c r="A22" s="34"/>
       <c r="B22" s="43" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -32952,7 +33116,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L22" s="28">
         <v>0</v>
@@ -32964,16 +33128,16 @@
     <row r="23" spans="1:13">
       <c r="A23" s="34"/>
       <c r="B23" s="43" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -32981,7 +33145,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
       <c r="K23" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L23" s="28">
         <v>0</v>
@@ -37154,157 +37318,157 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="172" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="168" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="164" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J15:J300">
-    <cfRule type="cellIs" dxfId="160" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B300">
-    <cfRule type="duplicateValues" dxfId="156" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8">
-    <cfRule type="duplicateValues" dxfId="155" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="154" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="153" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="152" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="151" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="36" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="37" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="38" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="147" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="39" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="40" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="41" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="143" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="44" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="45" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="139" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="47" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="48" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="49" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="50" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J14">
-    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="2" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37345,16 +37509,16 @@
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
-      <c r="I1" s="110" t="str">
+      <c r="I1" s="116" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="108" t="str">
+      <c r="J1" s="116"/>
+      <c r="K1" s="114" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="L1" s="109"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:1019" ht="18" customHeight="1">
       <c r="A2" s="22"/>
@@ -37365,16 +37529,16 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="110" t="str">
+      <c r="I2" s="116" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="108" t="str">
+      <c r="J2" s="116"/>
+      <c r="K2" s="114" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="L2" s="109"/>
+      <c r="L2" s="115"/>
     </row>
     <row r="3" spans="1:1019" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -37387,7 +37551,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
@@ -37399,25 +37563,25 @@
         <v>2</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AME3"/>
     </row>
     <row r="4" spans="1:1019" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="107">
+      <c r="B4" s="113">
         <f>COUNTA(B6:B300)</f>
         <v>42</v>
       </c>
@@ -37447,7 +37611,7 @@
     </row>
     <row r="5" spans="1:1019" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -37469,32 +37633,32 @@
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1019">
       <c r="A6" s="32"/>
       <c r="B6" s="32" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K6" s="28">
         <v>0</v>
@@ -37506,23 +37670,23 @@
     <row r="7" spans="1:1019">
       <c r="A7" s="34"/>
       <c r="B7" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K7" s="35">
         <v>0</v>
@@ -37534,23 +37698,23 @@
     <row r="8" spans="1:1019">
       <c r="A8" s="34"/>
       <c r="B8" s="32" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K8" s="28">
         <v>0</v>
@@ -37562,23 +37726,23 @@
     <row r="9" spans="1:1019">
       <c r="A9" s="34"/>
       <c r="B9" s="32" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K9" s="35">
         <v>0</v>
@@ -37590,23 +37754,23 @@
     <row r="10" spans="1:1019">
       <c r="A10" s="34"/>
       <c r="B10" s="32" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K10" s="28">
         <v>0</v>
@@ -37618,23 +37782,23 @@
     <row r="11" spans="1:1019">
       <c r="A11" s="34"/>
       <c r="B11" s="32" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K11" s="35">
         <v>0</v>
@@ -37646,23 +37810,23 @@
     <row r="12" spans="1:1019">
       <c r="A12" s="34"/>
       <c r="B12" s="32" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K12" s="28">
         <v>0</v>
@@ -37674,23 +37838,23 @@
     <row r="13" spans="1:1019">
       <c r="A13" s="34"/>
       <c r="B13" s="32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K13" s="35">
         <v>0</v>
@@ -37702,23 +37866,23 @@
     <row r="14" spans="1:1019">
       <c r="A14" s="34"/>
       <c r="B14" s="32" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K14" s="28">
         <v>0</v>
@@ -37730,23 +37894,23 @@
     <row r="15" spans="1:1019">
       <c r="A15" s="34"/>
       <c r="B15" s="32" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K15" s="35">
         <v>0</v>
@@ -37758,23 +37922,23 @@
     <row r="16" spans="1:1019">
       <c r="A16" s="34"/>
       <c r="B16" s="34" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K16" s="35">
         <v>0</v>
@@ -37786,23 +37950,23 @@
     <row r="17" spans="1:12">
       <c r="A17" s="34"/>
       <c r="B17" s="34" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K17" s="35">
         <v>0</v>
@@ -37814,23 +37978,23 @@
     <row r="18" spans="1:12">
       <c r="A18" s="34"/>
       <c r="B18" s="34" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K18" s="35">
         <v>0</v>
@@ -37842,23 +38006,23 @@
     <row r="19" spans="1:12">
       <c r="A19" s="34"/>
       <c r="B19" s="34" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K19" s="35">
         <v>0</v>
@@ -37870,23 +38034,23 @@
     <row r="20" spans="1:12">
       <c r="A20" s="34"/>
       <c r="B20" s="34" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K20" s="35">
         <v>0</v>
@@ -37898,23 +38062,23 @@
     <row r="21" spans="1:12">
       <c r="A21" s="34"/>
       <c r="B21" s="34" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K21" s="35">
         <v>0</v>
@@ -37926,23 +38090,23 @@
     <row r="22" spans="1:12">
       <c r="A22" s="34"/>
       <c r="B22" s="34" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K22" s="35">
         <v>0</v>
@@ -37954,23 +38118,23 @@
     <row r="23" spans="1:12">
       <c r="A23" s="34"/>
       <c r="B23" s="34" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
       <c r="J23" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K23" s="35">
         <v>0</v>
@@ -37982,23 +38146,23 @@
     <row r="24" spans="1:12">
       <c r="A24" s="34"/>
       <c r="B24" s="34" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K24" s="35">
         <v>0</v>
@@ -38010,21 +38174,21 @@
     <row r="25" spans="1:12">
       <c r="A25" s="34"/>
       <c r="B25" s="34" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="J25" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K25" s="35">
         <v>0</v>
@@ -38036,21 +38200,21 @@
     <row r="26" spans="1:12">
       <c r="A26" s="34"/>
       <c r="B26" s="34" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K26" s="35">
         <v>0</v>
@@ -38062,21 +38226,21 @@
     <row r="27" spans="1:12">
       <c r="A27" s="34"/>
       <c r="B27" s="34" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K27" s="35">
         <v>0</v>
@@ -38088,21 +38252,21 @@
     <row r="28" spans="1:12">
       <c r="A28" s="34"/>
       <c r="B28" s="34" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K28" s="35">
         <v>0</v>
@@ -38114,21 +38278,21 @@
     <row r="29" spans="1:12">
       <c r="A29" s="34"/>
       <c r="B29" s="34" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K29" s="35">
         <v>0</v>
@@ -38140,21 +38304,21 @@
     <row r="30" spans="1:12">
       <c r="A30" s="34"/>
       <c r="B30" s="34" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K30" s="35">
         <v>0</v>
@@ -38166,21 +38330,21 @@
     <row r="31" spans="1:12">
       <c r="A31" s="34"/>
       <c r="B31" s="34" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K31" s="35">
         <v>0</v>
@@ -38192,21 +38356,21 @@
     <row r="32" spans="1:12">
       <c r="A32" s="34"/>
       <c r="B32" s="34" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="28" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K32" s="35">
         <v>0</v>
@@ -38218,21 +38382,21 @@
     <row r="33" spans="1:12">
       <c r="A33" s="34"/>
       <c r="B33" s="34" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K33" s="35">
         <v>0</v>
@@ -38244,21 +38408,21 @@
     <row r="34" spans="1:12">
       <c r="A34" s="34"/>
       <c r="B34" s="34" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
       <c r="J34" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K34" s="35">
         <v>0</v>
@@ -38270,21 +38434,21 @@
     <row r="35" spans="1:12">
       <c r="A35" s="34"/>
       <c r="B35" s="34" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K35" s="35">
         <v>0</v>
@@ -38296,21 +38460,21 @@
     <row r="36" spans="1:12">
       <c r="A36" s="34"/>
       <c r="B36" s="34" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="28" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K36" s="35">
         <v>0</v>
@@ -38322,21 +38486,21 @@
     <row r="37" spans="1:12">
       <c r="A37" s="34"/>
       <c r="B37" s="34" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
       <c r="J37" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K37" s="35">
         <v>0</v>
@@ -38348,21 +38512,21 @@
     <row r="38" spans="1:12">
       <c r="A38" s="34"/>
       <c r="B38" s="34" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
       <c r="J38" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K38" s="35">
         <v>0</v>
@@ -38374,21 +38538,21 @@
     <row r="39" spans="1:12">
       <c r="A39" s="34"/>
       <c r="B39" s="34" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K39" s="35">
         <v>0</v>
@@ -38400,21 +38564,21 @@
     <row r="40" spans="1:12">
       <c r="A40" s="34"/>
       <c r="B40" s="34" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C40" s="34"/>
       <c r="D40" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="28" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K40" s="35">
         <v>0</v>
@@ -38426,21 +38590,21 @@
     <row r="41" spans="1:12">
       <c r="A41" s="34"/>
       <c r="B41" s="34" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="34" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
       <c r="J41" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K41" s="35">
         <v>0</v>
@@ -38452,23 +38616,23 @@
     <row r="42" spans="1:12">
       <c r="A42" s="34"/>
       <c r="B42" s="43" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K42" s="35">
         <v>0</v>
@@ -38480,23 +38644,23 @@
     <row r="43" spans="1:12">
       <c r="A43" s="34"/>
       <c r="B43" s="43" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K43" s="35">
         <v>0</v>
@@ -38508,23 +38672,23 @@
     <row r="44" spans="1:12">
       <c r="A44" s="34"/>
       <c r="B44" s="43" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
       <c r="J44" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K44" s="35">
         <v>0</v>
@@ -38536,23 +38700,23 @@
     <row r="45" spans="1:12">
       <c r="A45" s="34"/>
       <c r="B45" s="43" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K45" s="35">
         <v>0</v>
@@ -38564,23 +38728,23 @@
     <row r="46" spans="1:12">
       <c r="A46" s="34"/>
       <c r="B46" s="43" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
       <c r="J46" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K46" s="35">
         <v>0</v>
@@ -38592,23 +38756,23 @@
     <row r="47" spans="1:12">
       <c r="A47" s="34"/>
       <c r="B47" s="43" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K47" s="35">
         <v>0</v>
@@ -42168,21 +42332,21 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:I300">
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B300">
-    <cfRule type="duplicateValues" dxfId="127" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -42223,16 +42387,16 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="110" t="str">
+      <c r="K1" s="116" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="L1" s="110"/>
-      <c r="M1" s="108" t="str">
+      <c r="L1" s="116"/>
+      <c r="M1" s="114" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="N1" s="109"/>
+      <c r="N1" s="115"/>
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
     </row>
@@ -42247,16 +42411,16 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="110" t="str">
+      <c r="K2" s="116" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="L2" s="110"/>
-      <c r="M2" s="108" t="str">
+      <c r="L2" s="116"/>
+      <c r="M2" s="114" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="N2" s="109"/>
+      <c r="N2" s="115"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
     </row>
@@ -42271,7 +42435,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
@@ -42286,29 +42450,29 @@
         <v>3</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="111" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+        <v>36</v>
+      </c>
+      <c r="N3" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
     </row>
     <row r="4" spans="1:16" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="107">
+      <c r="B4" s="113">
         <f>COUNTA(B6:B299)</f>
         <v>12</v>
       </c>
@@ -42344,7 +42508,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -42370,34 +42534,34 @@
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="32"/>
       <c r="B6" s="32" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -42405,7 +42569,7 @@
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L6" s="28">
         <v>0</v>
@@ -42420,16 +42584,16 @@
     <row r="7" spans="1:16">
       <c r="A7" s="34"/>
       <c r="B7" s="32" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
@@ -42437,7 +42601,7 @@
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L7" s="28">
         <v>0</v>
@@ -42452,14 +42616,14 @@
     <row r="8" spans="1:16">
       <c r="A8" s="34"/>
       <c r="B8" s="32" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -42467,7 +42631,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L8" s="28">
         <v>0</v>
@@ -42482,14 +42646,14 @@
     <row r="9" spans="1:16">
       <c r="A9" s="34"/>
       <c r="B9" s="32" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -42497,7 +42661,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L9" s="28">
         <v>0</v>
@@ -42512,14 +42676,14 @@
     <row r="10" spans="1:16">
       <c r="A10" s="34"/>
       <c r="B10" s="32" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -42527,7 +42691,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L10" s="28">
         <v>0</v>
@@ -42542,14 +42706,14 @@
     <row r="11" spans="1:16">
       <c r="A11" s="34"/>
       <c r="B11" s="32" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -42557,7 +42721,7 @@
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
       <c r="K11" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L11" s="28">
         <v>0</v>
@@ -42572,16 +42736,16 @@
     <row r="12" spans="1:16">
       <c r="A12" s="34"/>
       <c r="B12" s="42" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -42589,7 +42753,7 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L12" s="35">
         <v>0</v>
@@ -42604,16 +42768,16 @@
     <row r="13" spans="1:16">
       <c r="A13" s="34"/>
       <c r="B13" s="42" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -42621,7 +42785,7 @@
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L13" s="28">
         <v>0</v>
@@ -42636,16 +42800,16 @@
     <row r="14" spans="1:16">
       <c r="A14" s="34"/>
       <c r="B14" s="42" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -42653,7 +42817,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L14" s="28">
         <v>0</v>
@@ -42668,16 +42832,16 @@
     <row r="15" spans="1:16">
       <c r="A15" s="34"/>
       <c r="B15" s="42" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -42685,7 +42849,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
       <c r="K15" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L15" s="28">
         <v>0</v>
@@ -42700,16 +42864,16 @@
     <row r="16" spans="1:16">
       <c r="A16" s="34"/>
       <c r="B16" s="42" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -42717,7 +42881,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L16" s="35">
         <v>0</v>
@@ -42732,16 +42896,16 @@
     <row r="17" spans="1:16">
       <c r="A17" s="34"/>
       <c r="B17" s="42" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -42749,7 +42913,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L17" s="35">
         <v>0</v>
@@ -47850,21 +48014,21 @@
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:J299">
-    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B299">
-    <cfRule type="duplicateValues" dxfId="122" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="273"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -47905,16 +48069,16 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
-      <c r="J1" s="110" t="str">
+      <c r="J1" s="116" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="108" t="str">
+      <c r="K1" s="116"/>
+      <c r="L1" s="114" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="M1" s="109"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="39"/>
@@ -47926,16 +48090,16 @@
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
-      <c r="J2" s="110" t="str">
+      <c r="J2" s="116" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="108" t="str">
+      <c r="K2" s="116"/>
+      <c r="L2" s="114" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="M2" s="109"/>
+      <c r="M2" s="115"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -47948,7 +48112,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>14</v>
@@ -47960,27 +48124,27 @@
         <v>2</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="107">
+      <c r="B4" s="113">
         <f>COUNTA(B6:B300)</f>
         <v>7</v>
       </c>
@@ -48010,7 +48174,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -48038,23 +48202,23 @@
     <row r="6" spans="1:13">
       <c r="A6" s="32"/>
       <c r="B6" s="32" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K6" s="28">
         <v>0</v>
@@ -48069,23 +48233,23 @@
     <row r="7" spans="1:13">
       <c r="A7" s="34"/>
       <c r="B7" s="32" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K7" s="28">
         <v>0</v>
@@ -48100,23 +48264,23 @@
     <row r="8" spans="1:13">
       <c r="A8" s="34"/>
       <c r="B8" s="32" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K8" s="28">
         <v>0</v>
@@ -48131,23 +48295,23 @@
     <row r="9" spans="1:13">
       <c r="A9" s="34"/>
       <c r="B9" s="32" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K9" s="28">
         <v>0</v>
@@ -48162,23 +48326,23 @@
     <row r="10" spans="1:13">
       <c r="A10" s="34"/>
       <c r="B10" s="32" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K10" s="28">
         <v>0</v>
@@ -48193,23 +48357,23 @@
     <row r="11" spans="1:13">
       <c r="A11" s="34"/>
       <c r="B11" s="32" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K11" s="28">
         <v>0</v>
@@ -48224,23 +48388,23 @@
     <row r="12" spans="1:13">
       <c r="A12" s="34"/>
       <c r="B12" s="43" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K12" s="28">
         <v>0</v>
@@ -52581,134 +52745,134 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="113" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I11:I300">
-    <cfRule type="cellIs" dxfId="109" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11 B13:B300">
-    <cfRule type="duplicateValues" dxfId="105" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8">
-    <cfRule type="duplicateValues" dxfId="104" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="103" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="102" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="101" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="100" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="32" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="33" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="34" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="96" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="36" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="92" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="88" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="45" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
